--- a/Sequencer_Borard/Sequencer_IC接続表.xlsx
+++ b/Sequencer_Borard/Sequencer_IC接続表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>ATMega88V</t>
     <phoneticPr fontId="1"/>
@@ -226,11 +226,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> b n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>11(SCK)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sequencer_IC接続表</t>
+  </si>
+  <si>
+    <t>2015.11.23</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -238,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +257,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,6 +304,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -322,7 +340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -345,6 +363,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="B2:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -652,469 +676,474 @@
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="B3" s="1">
+    <row r="6" spans="2:8">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="2:8">
       <c r="B7" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="2:8">
       <c r="B8" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="2">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="5">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8">
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8">
       <c r="B11" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8">
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
+    <row r="12" spans="2:8">
+      <c r="B12" s="2">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:8">
       <c r="B14" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="G14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
       <c r="B15" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
       <c r="B16" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="1">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1">
+        <v>18</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1">
         <v>19</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="3">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="2">
         <v>20</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="3">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="3">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="8">
         <v>22</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="1">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="1">
-        <v>24</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="1">
-        <v>25</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="3">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="2:8">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+      <c r="B31" s="3">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="2:8">
-      <c r="B32" t="s">
+      <c r="B32" s="1">
+        <v>27</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="1" t="s">
+    <row r="36" spans="2:8">
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="1" t="s">
+    <row r="37" spans="2:8">
+      <c r="B37" s="5"/>
+      <c r="C37" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="7"/>
-      <c r="C35" s="1" t="s">
+    <row r="38" spans="2:8">
+      <c r="B38" s="7"/>
+      <c r="C38" s="1" t="s">
         <v>55</v>
       </c>
     </row>
